--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AVERAGE_10_9.xlsx
@@ -369,187 +369,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
       <c r="B3">
-        <v>2.586514768096104</v>
+        <v>6.992417114397731</v>
       </c>
       <c r="C3">
-        <v>1.910666127459315</v>
+        <v>2.651903832953884</v>
       </c>
       <c r="D3">
-        <v>0.6492937867006665</v>
+        <v>1.052572528399653</v>
       </c>
       <c r="E3">
         <v>0.1715429114845346</v>
@@ -695,28 +692,25 @@
       <c r="AZ3">
         <v>0.1715429114845346</v>
       </c>
-      <c r="BA3">
-        <v>0.1715429114845346</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
       <c r="B4">
-        <v>3.813349014348999</v>
+        <v>7.18590312890619</v>
       </c>
       <c r="C4">
-        <v>1.061430588190659</v>
+        <v>3.648892256099967</v>
       </c>
       <c r="D4">
-        <v>1.029695223257265</v>
+        <v>2.396905458966625</v>
       </c>
       <c r="E4">
-        <v>0.2478029645461621</v>
+        <v>0.5356365903280924</v>
       </c>
       <c r="F4">
-        <v>0.8509156074281155</v>
+        <v>0.475547144596522</v>
       </c>
       <c r="G4">
         <v>0.8004663283405655</v>
@@ -856,31 +850,25 @@
       <c r="AZ4">
         <v>0.8004663283405655</v>
       </c>
-      <c r="BA4">
-        <v>0.8004663283405655</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>2.37644477156651</v>
-      </c>
       <c r="D5">
-        <v>1.879774032612325</v>
+        <v>2.557501775704929</v>
       </c>
       <c r="E5">
-        <v>1.612940612014202</v>
+        <v>1.508458613525354</v>
       </c>
       <c r="F5">
-        <v>3.104354676582588</v>
+        <v>1.495774185788745</v>
       </c>
       <c r="G5">
-        <v>4.590949402546851</v>
+        <v>1.805987045940682</v>
       </c>
       <c r="H5">
-        <v>4.859624274446639</v>
+        <v>4.312104569761943</v>
       </c>
       <c r="I5">
         <v>5.253783907501819</v>
@@ -1014,31 +1002,25 @@
       <c r="AZ5">
         <v>5.253783907501819</v>
       </c>
-      <c r="BA5">
-        <v>5.253783907501819</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>0.6817359660352462</v>
-      </c>
       <c r="F6">
-        <v>1.407367165006268</v>
+        <v>1.488234279941647</v>
       </c>
       <c r="G6">
-        <v>4.46454249114312</v>
+        <v>0.8024032015999882</v>
       </c>
       <c r="H6">
-        <v>5.038245254736218</v>
+        <v>1.976172106438545</v>
       </c>
       <c r="I6">
-        <v>6.528307842404013</v>
+        <v>4.382531137514767</v>
       </c>
       <c r="J6">
-        <v>4.695210483877932</v>
+        <v>4.639864760432189</v>
       </c>
       <c r="K6">
         <v>3.522405026196918</v>
@@ -1166,31 +1148,25 @@
       <c r="AZ6">
         <v>3.522405026196918</v>
       </c>
-      <c r="BA6">
-        <v>3.522405026196918</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>3.566737188495317</v>
-      </c>
       <c r="H7">
-        <v>3.854493764506284</v>
+        <v>1.893295577996779</v>
       </c>
       <c r="I7">
-        <v>5.954005138712448</v>
+        <v>3.197643605100797</v>
       </c>
       <c r="J7">
-        <v>5.621997990775096</v>
+        <v>4.074582884048139</v>
       </c>
       <c r="K7">
-        <v>2.728164648391185</v>
+        <v>1.988448192515935</v>
       </c>
       <c r="L7">
-        <v>1.881828690227838</v>
+        <v>1.418316910291906</v>
       </c>
       <c r="M7">
         <v>1.656063945467268</v>
@@ -1312,31 +1288,25 @@
       <c r="AZ7">
         <v>1.656063945467268</v>
       </c>
-      <c r="BA7">
-        <v>1.656063945467268</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>6.136355062499965</v>
-      </c>
       <c r="J8">
-        <v>5.385467023157697</v>
+        <v>4.184092216308799</v>
       </c>
       <c r="K8">
-        <v>4.657950037323166</v>
+        <v>3.608060659590451</v>
       </c>
       <c r="L8">
-        <v>4.751079681005232</v>
+        <v>3.247860853607465</v>
       </c>
       <c r="M8">
-        <v>5.01424274443687</v>
+        <v>3.166945525867848</v>
       </c>
       <c r="N8">
-        <v>3.853158971520942</v>
+        <v>3.520945360626571</v>
       </c>
       <c r="O8">
         <v>4.06235252733802</v>
@@ -1452,31 +1422,25 @@
       <c r="AZ8">
         <v>4.06235252733802</v>
       </c>
-      <c r="BA8">
-        <v>4.06235252733802</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>3.608060659590451</v>
-      </c>
       <c r="L9">
         <v>3.343464100342031</v>
       </c>
       <c r="M9">
-        <v>5.402427432448786</v>
+        <v>3.019459040387984</v>
       </c>
       <c r="N9">
-        <v>3.953305440031629</v>
+        <v>2.547371915279606</v>
       </c>
       <c r="O9">
-        <v>4.963935273957154</v>
+        <v>3.684750195712683</v>
       </c>
       <c r="P9">
-        <v>2.990570386122382</v>
+        <v>3.285568146716344</v>
       </c>
       <c r="Q9">
         <v>3.05427116350534</v>
@@ -1586,31 +1550,25 @@
       <c r="AZ9">
         <v>3.05427116350534</v>
       </c>
-      <c r="BA9">
-        <v>3.05427116350534</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>4.210508718341677</v>
-      </c>
       <c r="N10">
-        <v>3.307961141331162</v>
+        <v>2.450141597588917</v>
       </c>
       <c r="O10">
-        <v>4.762690015327697</v>
+        <v>2.858912235977829</v>
       </c>
       <c r="P10">
-        <v>2.349906678541247</v>
+        <v>3.38738696315446</v>
       </c>
       <c r="Q10">
-        <v>1.973747512448343</v>
+        <v>2.9587404276884</v>
       </c>
       <c r="R10">
-        <v>2.306783028297055</v>
+        <v>2.441258738366514</v>
       </c>
       <c r="S10">
         <v>2.305809238174006</v>
@@ -1714,31 +1672,25 @@
       <c r="AZ10">
         <v>2.305809238174006</v>
       </c>
-      <c r="BA10">
-        <v>2.305809238174006</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>4.558829855592839</v>
-      </c>
       <c r="P11">
-        <v>3.035369522192144</v>
+        <v>3.491848178733536</v>
       </c>
       <c r="Q11">
-        <v>1.854484318027394</v>
+        <v>3.466954089033747</v>
       </c>
       <c r="R11">
-        <v>2.421714466791935</v>
+        <v>3.091878630346012</v>
       </c>
       <c r="S11">
-        <v>2.420751168230217</v>
+        <v>2.661643377950096</v>
       </c>
       <c r="T11">
-        <v>2.547114352819779</v>
+        <v>2.480871685520603</v>
       </c>
       <c r="U11">
         <v>2.509111342826809</v>
@@ -1836,37 +1788,31 @@
       <c r="AZ11">
         <v>2.509111342826809</v>
       </c>
-      <c r="BA11">
-        <v>2.509111342826809</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>2.194176392448521</v>
-      </c>
       <c r="R12">
-        <v>2.406603101289417</v>
+        <v>3.136162599657255</v>
       </c>
       <c r="S12">
-        <v>2.406310964599223</v>
+        <v>2.806147177668961</v>
       </c>
       <c r="T12">
-        <v>2.610083338243396</v>
+        <v>2.296583397191387</v>
       </c>
       <c r="U12">
-        <v>2.434773703516147</v>
+        <v>2.433248629349549</v>
       </c>
       <c r="V12">
-        <v>3.218336425087465</v>
+        <v>2.83347664679956</v>
       </c>
       <c r="W12">
-        <v>3.220130655314013</v>
+        <v>3.071095202329288</v>
       </c>
       <c r="X12">
-        <v>3.297011904810243</v>
+        <v>3.248721852957415</v>
       </c>
       <c r="Y12">
         <v>3.296731496509198</v>
@@ -1952,46 +1898,37 @@
       <c r="AZ12">
         <v>3.296731496509198</v>
       </c>
-      <c r="BA12">
-        <v>3.296731496509198</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>2.381666820806827</v>
-      </c>
-      <c r="S13">
-        <v>2.380891781034356</v>
-      </c>
       <c r="T13">
-        <v>2.586015352794724</v>
+        <v>2.2749004473406</v>
       </c>
       <c r="U13">
-        <v>2.436978468705253</v>
+        <v>2.419254005578297</v>
       </c>
       <c r="V13">
-        <v>3.314705933595397</v>
+        <v>2.560065157976177</v>
       </c>
       <c r="W13">
-        <v>3.315294106121924</v>
+        <v>2.781797072072023</v>
       </c>
       <c r="X13">
-        <v>3.699746550608474</v>
+        <v>3.078223990352669</v>
       </c>
       <c r="Y13">
-        <v>3.698824700849923</v>
+        <v>3.296423324101938</v>
       </c>
       <c r="Z13">
-        <v>2.926968792950002</v>
+        <v>3.149270133134596</v>
       </c>
       <c r="AA13">
-        <v>2.848273197519613</v>
+        <v>2.994116795316071</v>
       </c>
       <c r="AB13">
-        <v>2.783907785663198</v>
+        <v>2.867378798220366</v>
       </c>
       <c r="AC13">
         <v>2.861315725866587</v>
@@ -2065,52 +2002,40 @@
       <c r="AZ13">
         <v>2.861315725866587</v>
       </c>
-      <c r="BA13">
-        <v>2.861315725866587</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>2.588220440838196</v>
-      </c>
-      <c r="U14">
-        <v>2.462266103177058</v>
-      </c>
-      <c r="V14">
-        <v>3.260312817979827</v>
-      </c>
       <c r="W14">
-        <v>3.26067296571988</v>
+        <v>2.724246191199065</v>
       </c>
       <c r="X14">
-        <v>3.624272943721674</v>
+        <v>2.886418298927351</v>
       </c>
       <c r="Y14">
-        <v>3.648861866706321</v>
+        <v>3.008574382540607</v>
       </c>
       <c r="Z14">
-        <v>2.421686529599998</v>
+        <v>3.009352983329028</v>
       </c>
       <c r="AA14">
-        <v>2.217691096581187</v>
+        <v>2.939737488252936</v>
       </c>
       <c r="AB14">
-        <v>1.798452007460738</v>
+        <v>2.769017518462746</v>
       </c>
       <c r="AC14">
-        <v>2.689890129818551</v>
+        <v>2.763966172716947</v>
       </c>
       <c r="AD14">
-        <v>2.561163765278374</v>
+        <v>2.689501145820206</v>
       </c>
       <c r="AE14">
-        <v>2.637867031864882</v>
+        <v>2.671604274379558</v>
       </c>
       <c r="AF14">
-        <v>1.841406700970061</v>
+        <v>1.790319754067715</v>
       </c>
       <c r="AG14">
         <v>1.790319754067715</v>
@@ -2172,58 +2097,40 @@
       <c r="AZ14">
         <v>1.790319754067715</v>
       </c>
-      <c r="BA14">
-        <v>1.790319754067715</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>3.296116985147668</v>
-      </c>
-      <c r="W15">
-        <v>3.297071266803586</v>
-      </c>
-      <c r="X15">
-        <v>3.583735806728638</v>
-      </c>
-      <c r="Y15">
-        <v>3.64870590283477</v>
-      </c>
-      <c r="Z15">
-        <v>2.467573065035489</v>
-      </c>
       <c r="AA15">
-        <v>2.279022019131483</v>
+        <v>2.988052171464251</v>
       </c>
       <c r="AB15">
-        <v>1.769182364915722</v>
+        <v>2.927264293158816</v>
       </c>
       <c r="AC15">
-        <v>2.829545434626057</v>
+        <v>2.947863484892133</v>
       </c>
       <c r="AD15">
-        <v>2.629169437381118</v>
+        <v>2.967409274751098</v>
       </c>
       <c r="AE15">
-        <v>2.829622026216927</v>
+        <v>2.997455747043043</v>
       </c>
       <c r="AF15">
-        <v>2.136136986781323</v>
+        <v>1.627017245406992</v>
       </c>
       <c r="AG15">
-        <v>2.136336055115096</v>
+        <v>1.856930494010856</v>
       </c>
       <c r="AH15">
-        <v>2.133537709052757</v>
+        <v>1.980033360076905</v>
       </c>
       <c r="AI15">
-        <v>2.133808466953946</v>
+        <v>2.08524086077817</v>
       </c>
       <c r="AJ15">
-        <v>2.134077088567254</v>
+        <v>2.339531676162721</v>
       </c>
       <c r="AK15">
         <v>2.339531676162721</v>
@@ -2273,61 +2180,40 @@
       <c r="AZ15">
         <v>2.339531676162721</v>
       </c>
-      <c r="BA15">
-        <v>2.339531676162721</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>3.648398997359137</v>
-      </c>
-      <c r="Z16">
-        <v>2.543473755363634</v>
-      </c>
-      <c r="AA16">
-        <v>2.379679548623725</v>
-      </c>
-      <c r="AB16">
-        <v>2.034067620154567</v>
-      </c>
-      <c r="AC16">
-        <v>2.829602229672346</v>
-      </c>
-      <c r="AD16">
-        <v>2.636563814328174</v>
-      </c>
       <c r="AE16">
-        <v>2.821754564903522</v>
+        <v>3.008439268567842</v>
       </c>
       <c r="AF16">
-        <v>2.306556099925872</v>
+        <v>2.174798403591915</v>
       </c>
       <c r="AG16">
-        <v>2.829605202499352</v>
+        <v>2.092911340281423</v>
       </c>
       <c r="AH16">
-        <v>2.829615386320383</v>
+        <v>2.063021041451907</v>
       </c>
       <c r="AI16">
-        <v>2.829704993179227</v>
+        <v>2.197771900625956</v>
       </c>
       <c r="AJ16">
-        <v>2.829971696551858</v>
+        <v>3.195599391913406</v>
       </c>
       <c r="AK16">
-        <v>5.542003005885743</v>
+        <v>4.270817433327112</v>
       </c>
       <c r="AL16">
-        <v>5.54163445616509</v>
+        <v>4.865769161659883</v>
       </c>
       <c r="AM16">
-        <v>5.411659135174118</v>
+        <v>4.939003803830477</v>
       </c>
       <c r="AN16">
-        <v>5.04459987483179</v>
+        <v>4.834496776263886</v>
       </c>
       <c r="AO16">
         <v>4.834496776263886</v>
@@ -2365,61 +2251,43 @@
       <c r="AZ16">
         <v>4.834496776263886</v>
       </c>
-      <c r="BA16">
-        <v>4.834496776263886</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>2.829709213843956</v>
-      </c>
-      <c r="AD17">
-        <v>2.648172456427367</v>
-      </c>
-      <c r="AE17">
-        <v>2.808903913161376</v>
-      </c>
-      <c r="AF17">
-        <v>2.116384428554619</v>
-      </c>
-      <c r="AG17">
-        <v>2.860115575786115</v>
-      </c>
       <c r="AH17">
-        <v>2.859691517361806</v>
+        <v>2.012391101645061</v>
       </c>
       <c r="AI17">
-        <v>2.859746179075584</v>
+        <v>2.053213017515065</v>
       </c>
       <c r="AJ17">
-        <v>2.859827241833823</v>
+        <v>2.441206385516637</v>
       </c>
       <c r="AK17">
-        <v>4.334847174798195</v>
+        <v>2.849406056739201</v>
       </c>
       <c r="AL17">
-        <v>4.334492918226496</v>
+        <v>3.291462037299842</v>
       </c>
       <c r="AM17">
-        <v>4.152343337882791</v>
+        <v>3.440178795466697</v>
       </c>
       <c r="AN17">
-        <v>4.366242242642326</v>
+        <v>3.06038938938058</v>
       </c>
       <c r="AO17">
-        <v>2.778727265168079</v>
+        <v>3.604316462518464</v>
       </c>
       <c r="AP17">
-        <v>3.492022830615338</v>
+        <v>3.332544669973525</v>
       </c>
       <c r="AQ17">
-        <v>3.171701472859723</v>
+        <v>2.93530792557688</v>
       </c>
       <c r="AR17">
-        <v>2.824943501366195</v>
+        <v>2.798216547494237</v>
       </c>
       <c r="AS17">
         <v>2.798216547494237</v>
@@ -2445,61 +2313,43 @@
       <c r="AZ17">
         <v>2.798216547494237</v>
       </c>
-      <c r="BA17">
-        <v>2.798216547494237</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>2.910621162342708</v>
-      </c>
-      <c r="AH18">
-        <v>2.909496509403198</v>
-      </c>
-      <c r="AI18">
-        <v>2.90964147842605</v>
-      </c>
-      <c r="AJ18">
-        <v>2.909856466149541</v>
-      </c>
-      <c r="AK18">
-        <v>4.084499653299867</v>
-      </c>
       <c r="AL18">
-        <v>4.08439029973382</v>
+        <v>3.13459343156206</v>
       </c>
       <c r="AM18">
-        <v>3.209994020385221</v>
+        <v>3.2380444610977</v>
       </c>
       <c r="AN18">
-        <v>3.836586276665366</v>
+        <v>3.116636734573786</v>
       </c>
       <c r="AO18">
-        <v>3.673277819245957</v>
+        <v>3.937364994846959</v>
       </c>
       <c r="AP18">
-        <v>3.390454998893877</v>
+        <v>3.789179157493971</v>
       </c>
       <c r="AQ18">
-        <v>3.313336685638868</v>
+        <v>3.215749572764803</v>
       </c>
       <c r="AR18">
-        <v>3.591136243562021</v>
+        <v>2.721520966738655</v>
       </c>
       <c r="AS18">
-        <v>3.285431995518517</v>
+        <v>2.098908173995873</v>
       </c>
       <c r="AT18">
-        <v>1.779426293060404</v>
+        <v>1.888626610265987</v>
       </c>
       <c r="AU18">
-        <v>1.785761317689727</v>
+        <v>1.635353376270698</v>
       </c>
       <c r="AV18">
-        <v>1.580512425878888</v>
+        <v>1.530879676868468</v>
       </c>
       <c r="AW18">
         <v>1.530879676868468</v>
@@ -2513,173 +2363,88 @@
       <c r="AZ18">
         <v>1.530879676868468</v>
       </c>
-      <c r="BA18">
-        <v>1.530879676868468</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>4.804564975281211</v>
-      </c>
-      <c r="AL19">
-        <v>4.804274191297053</v>
-      </c>
-      <c r="AM19">
-        <v>4.390631101743581</v>
-      </c>
-      <c r="AN19">
-        <v>4.556536775751763</v>
-      </c>
-      <c r="AO19">
-        <v>2.630031374045849</v>
-      </c>
       <c r="AP19">
-        <v>3.253691168485684</v>
+        <v>3.87020515078067</v>
       </c>
       <c r="AQ19">
-        <v>3.247718576736447</v>
+        <v>3.630162063286146</v>
       </c>
       <c r="AR19">
-        <v>3.611926062227533</v>
+        <v>3.491475308018321</v>
       </c>
       <c r="AS19">
-        <v>3.152442956658308</v>
+        <v>3.330923984031142</v>
       </c>
       <c r="AT19">
-        <v>2.428229002028437</v>
+        <v>2.949781091571957</v>
       </c>
       <c r="AU19">
-        <v>2.432837764269657</v>
+        <v>2.328770194687713</v>
       </c>
       <c r="AV19">
-        <v>2.455689670679972</v>
+        <v>1.713178787950698</v>
       </c>
       <c r="AW19">
-        <v>2.125082674338974</v>
+        <v>1.874466487556892</v>
       </c>
       <c r="AX19">
-        <v>2.103671369075166</v>
+        <v>1.966591496003445</v>
       </c>
       <c r="AY19">
-        <v>2.041299972273869</v>
+        <v>1.984020855913604</v>
       </c>
       <c r="AZ19">
-        <v>2.057287156976417</v>
-      </c>
-      <c r="BA19">
         <v>2.060859685319461</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>2.912629090312491</v>
-      </c>
-      <c r="AP20">
-        <v>3.279044019680843</v>
-      </c>
-      <c r="AQ20">
-        <v>3.139044226238541</v>
-      </c>
-      <c r="AR20">
-        <v>3.242504136930369</v>
-      </c>
-      <c r="AS20">
-        <v>2.259523580019707</v>
-      </c>
       <c r="AT20">
-        <v>2.344852483551318</v>
+        <v>2.975546095003945</v>
       </c>
       <c r="AU20">
-        <v>2.345285533160824</v>
+        <v>2.484849225038532</v>
       </c>
       <c r="AV20">
-        <v>2.377599855768131</v>
+        <v>1.999725833525323</v>
       </c>
       <c r="AW20">
-        <v>2.571624708172782</v>
+        <v>1.913049717010873</v>
       </c>
       <c r="AX20">
-        <v>1.836416298628496</v>
+        <v>2.005435469818684</v>
       </c>
       <c r="AY20">
-        <v>2.66908700341888</v>
+        <v>1.88544721086894</v>
       </c>
       <c r="AZ20">
-        <v>3.10450669425526</v>
-      </c>
-      <c r="BA20">
-        <v>3.217185105987364</v>
+        <v>2.141985433296578</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>2.964378882597885</v>
-      </c>
-      <c r="AT21">
-        <v>2.2176733235026</v>
-      </c>
-      <c r="AU21">
-        <v>2.22163655161951</v>
-      </c>
-      <c r="AV21">
-        <v>2.169380406327415</v>
-      </c>
-      <c r="AW21">
-        <v>2.406163741474865</v>
-      </c>
       <c r="AX21">
-        <v>1.411377348044929</v>
+        <v>1.983812695141185</v>
       </c>
       <c r="AY21">
-        <v>2.90422618923436</v>
+        <v>1.801217086776363</v>
       </c>
       <c r="AZ21">
-        <v>3.608233676358052</v>
-      </c>
-      <c r="BA21">
-        <v>4.231585801128745</v>
+        <v>1.846918513329565</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>2.380501198438867</v>
-      </c>
-      <c r="AX22">
-        <v>1.77147732142422</v>
-      </c>
-      <c r="AY22">
-        <v>2.557952525810858</v>
-      </c>
-      <c r="AZ22">
-        <v>2.958722855623241</v>
-      </c>
-      <c r="BA22">
-        <v>4.54401043297783</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>4.088492545935729</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AVERAGE_10_9.xlsx
@@ -2368,7 +2368,7 @@
         <v>2.405224065057476</v>
       </c>
       <c r="AG17">
-        <v>-0.4891791466461126</v>
+        <v>-0.618977527279696</v>
       </c>
       <c r="AH17">
         <v>-0.2228847697281378</v>
@@ -2451,19 +2451,19 @@
         <v>2.152035263856344</v>
       </c>
       <c r="AG18">
-        <v>0.6596954352570572</v>
+        <v>0.1082486211169353</v>
       </c>
       <c r="AH18">
-        <v>2.031388171904314</v>
+        <v>1.741559576439178</v>
       </c>
       <c r="AI18">
-        <v>2.00987424531256</v>
+        <v>1.792373617242249</v>
       </c>
       <c r="AJ18">
-        <v>-0.678826357714013</v>
+        <v>-0.9722867993663398</v>
       </c>
       <c r="AK18">
-        <v>-0.7941560676977599</v>
+        <v>-1.169239269654421</v>
       </c>
       <c r="AL18">
         <v>-1.165854108406617</v>
@@ -2522,31 +2522,31 @@
         <v>2.377805161037783</v>
       </c>
       <c r="AG19">
-        <v>1.34178098662987</v>
+        <v>1.089812303846749</v>
       </c>
       <c r="AH19">
-        <v>1.593528793733401</v>
+        <v>1.779174890136459</v>
       </c>
       <c r="AI19">
-        <v>1.446144849547082</v>
+        <v>1.512631895540539</v>
       </c>
       <c r="AJ19">
-        <v>0.02414656897629097</v>
+        <v>-0.1151106897824938</v>
       </c>
       <c r="AK19">
-        <v>1.553668892952742</v>
+        <v>-0.08704962334622479</v>
       </c>
       <c r="AL19">
-        <v>2.209187654930855</v>
+        <v>0.6926065284462046</v>
       </c>
       <c r="AM19">
-        <v>3.122586570118835</v>
+        <v>2.138474224004239</v>
       </c>
       <c r="AN19">
-        <v>0.7010162698181555</v>
+        <v>0.1776648540293913</v>
       </c>
       <c r="AO19">
-        <v>2.34069710769782</v>
+        <v>2.24006960102876</v>
       </c>
       <c r="AP19">
         <v>2.501311189006916</v>
@@ -2589,38 +2589,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>1.355030189640649</v>
-      </c>
       <c r="AJ20">
-        <v>0.1048127687639733</v>
+        <v>0.3155976206193456</v>
       </c>
       <c r="AK20">
-        <v>0.736153849722565</v>
+        <v>-0.0665994406151782</v>
       </c>
       <c r="AL20">
-        <v>0.5806143712897782</v>
+        <v>0.3395014004389463</v>
       </c>
       <c r="AM20">
-        <v>1.070586793467498</v>
+        <v>0.6111028871791158</v>
       </c>
       <c r="AN20">
-        <v>-0.6730402944081559</v>
+        <v>-1.134429800434078</v>
       </c>
       <c r="AO20">
-        <v>1.423433561452137</v>
+        <v>0.4012493484190971</v>
       </c>
       <c r="AP20">
-        <v>2.819423640661167</v>
+        <v>2.055357398179147</v>
       </c>
       <c r="AQ20">
-        <v>2.639029809913129</v>
+        <v>2.4841157036257</v>
       </c>
       <c r="AR20">
-        <v>2.158153176293576</v>
+        <v>2.217384308289683</v>
       </c>
       <c r="AS20">
-        <v>0.9259311313598806</v>
+        <v>0.8849036736220839</v>
       </c>
       <c r="AT20">
         <v>0.6753076481029074</v>
@@ -2651,38 +2648,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>0.7710333229054012</v>
-      </c>
       <c r="AN21">
-        <v>-0.7127283419421593</v>
+        <v>-0.6336784008719287</v>
       </c>
       <c r="AO21">
-        <v>1.204382160644091</v>
+        <v>0.04631353286177475</v>
       </c>
       <c r="AP21">
-        <v>1.763513557387708</v>
+        <v>1.457326774241374</v>
       </c>
       <c r="AQ21">
-        <v>1.61912427117199</v>
+        <v>1.649971980070997</v>
       </c>
       <c r="AR21">
-        <v>1.298013848993262</v>
+        <v>1.307306144161835</v>
       </c>
       <c r="AS21">
-        <v>1.321448002249337</v>
+        <v>0.455283828433517</v>
       </c>
       <c r="AT21">
-        <v>0.6583865490665364</v>
+        <v>0.9064937165318643</v>
       </c>
       <c r="AU21">
-        <v>1.29262043481877</v>
+        <v>1.144003037854291</v>
       </c>
       <c r="AV21">
-        <v>-0.1645072558042915</v>
+        <v>-0.1883299148263573</v>
       </c>
       <c r="AW21">
-        <v>1.935025917091848</v>
+        <v>1.978716901346389</v>
       </c>
       <c r="AX21">
         <v>2.039329803030121</v>
@@ -2701,78 +2695,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>1.556861371197504</v>
-      </c>
       <c r="AR22">
-        <v>1.422316027865556</v>
+        <v>1.356838542228789</v>
       </c>
       <c r="AS22">
-        <v>1.994771409406515</v>
+        <v>0.8018292131726668</v>
       </c>
       <c r="AT22">
-        <v>1.47355171901693</v>
+        <v>1.780453241879165</v>
       </c>
       <c r="AU22">
-        <v>1.577641784671369</v>
+        <v>1.636991574405333</v>
       </c>
       <c r="AV22">
-        <v>0.1619933518385297</v>
+        <v>0.4536295996834916</v>
       </c>
       <c r="AW22">
-        <v>1.814429727910216</v>
+        <v>1.861561193014372</v>
       </c>
       <c r="AX22">
-        <v>2.453497774623137</v>
+        <v>2.227147006388908</v>
       </c>
       <c r="AY22">
-        <v>1.562469275846001</v>
+        <v>1.42158706675215</v>
       </c>
       <c r="AZ22">
-        <v>3.131832690451031</v>
+        <v>3.083905204716286</v>
       </c>
       <c r="BA22">
-        <v>2.43119486791763</v>
+        <v>2.329506126295722</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>1.512964657411886</v>
-      </c>
       <c r="AV23">
-        <v>0.372571141316369</v>
+        <v>0.7943713210255998</v>
       </c>
       <c r="AW23">
-        <v>1.641294231577373</v>
+        <v>1.510173017742922</v>
       </c>
       <c r="AX23">
-        <v>1.760840087160309</v>
+        <v>1.806173837644764</v>
       </c>
       <c r="AY23">
-        <v>1.276308453105246</v>
+        <v>1.392799823427304</v>
       </c>
       <c r="AZ23">
-        <v>2.199676451050503</v>
+        <v>2.197852508472353</v>
       </c>
       <c r="BA23">
-        <v>2.795512766421537</v>
+        <v>1.886495146159572</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>1.206663544620801</v>
-      </c>
       <c r="AZ24">
-        <v>1.748881903037569</v>
+        <v>1.808382088315508</v>
       </c>
       <c r="BA24">
-        <v>2.385990904601898</v>
+        <v>1.418591644457501</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AVERAGE_10_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2233 +535,1906 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="B3">
+        <v>6.492254376631101</v>
+      </c>
+      <c r="C3">
+        <v>4.566338461218034</v>
+      </c>
+      <c r="D3">
+        <v>8.262942840582976</v>
+      </c>
+      <c r="E3">
+        <v>8.604123301398015</v>
+      </c>
+      <c r="F3">
+        <v>6.277541464866965</v>
+      </c>
+      <c r="G3">
+        <v>4.685841089432219</v>
+      </c>
+      <c r="H3">
+        <v>5.50407996026312</v>
+      </c>
+      <c r="I3">
+        <v>5.261925437969173</v>
+      </c>
+      <c r="J3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="K3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="L3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="M3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="N3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="O3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="P3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="Q3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="R3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="S3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="T3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="U3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="V3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="W3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="X3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="Y3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="Z3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AA3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AB3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AC3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AD3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AE3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AF3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AG3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AH3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AI3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AJ3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AK3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AL3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AM3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AN3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AO3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AP3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AQ3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AR3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AS3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AT3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AU3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AV3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AW3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AX3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AY3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AZ3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="BA3">
+        <v>1.457481710491582</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>5.896808312953783</v>
+        <v>40543</v>
       </c>
       <c r="C4">
-        <v>6.499072917387227</v>
+        <v>5.844382037446083</v>
       </c>
       <c r="D4">
-        <v>7.465152966818556</v>
+        <v>7.804666188252063</v>
       </c>
       <c r="E4">
-        <v>7.465152966818556</v>
+        <v>8.260999835306748</v>
       </c>
       <c r="F4">
-        <v>6.977409046522776</v>
+        <v>7.915558093865016</v>
       </c>
       <c r="G4">
-        <v>6.977409046522776</v>
+        <v>5.436647924209592</v>
       </c>
       <c r="H4">
-        <v>6.977409046522776</v>
+        <v>6.535114773304795</v>
       </c>
       <c r="I4">
-        <v>6.977409046522776</v>
+        <v>6.546022603510737</v>
       </c>
       <c r="J4">
-        <v>6.977409046522776</v>
+        <v>2.925298061139281</v>
       </c>
       <c r="K4">
-        <v>6.977409046522776</v>
+        <v>2.925298061139281</v>
       </c>
       <c r="L4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="M4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="N4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="O4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="P4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="Q4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="R4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="S4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="T4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="U4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="V4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="W4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="X4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="Y4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="Z4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AA4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AB4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AC4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AD4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AE4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AF4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AG4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AH4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AI4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AJ4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AK4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AL4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AM4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AN4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AO4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AP4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AQ4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AR4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AS4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AT4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AU4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AV4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AW4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AX4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AY4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AZ4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="BA4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B5">
-        <v>7.318442086255605</v>
-      </c>
-      <c r="C5">
-        <v>6.056254825277896</v>
-      </c>
-      <c r="D5">
-        <v>7.441962824572235</v>
+        <v>40908</v>
       </c>
       <c r="E5">
-        <v>7.28678647089771</v>
+        <v>8.086739863971237</v>
       </c>
       <c r="F5">
-        <v>6.333240261802175</v>
+        <v>7.65793515736144</v>
       </c>
       <c r="G5">
-        <v>7.319484411839716</v>
+        <v>4.862860110364853</v>
       </c>
       <c r="H5">
-        <v>7.862909309344301</v>
+        <v>6.402044794134309</v>
       </c>
       <c r="I5">
-        <v>7.862909309344301</v>
+        <v>6.334380382529448</v>
       </c>
       <c r="J5">
-        <v>7.862909309344301</v>
+        <v>5.12051970717502</v>
       </c>
       <c r="K5">
-        <v>7.862909309344301</v>
+        <v>5.068263380731564</v>
       </c>
       <c r="L5">
-        <v>7.862909309344301</v>
+        <v>3.441186410406072</v>
       </c>
       <c r="M5">
-        <v>7.862909309344301</v>
+        <v>3.441186410406072</v>
       </c>
       <c r="N5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="O5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="P5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="Q5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="R5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="S5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="T5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="U5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="V5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="W5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="X5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="Y5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="Z5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AA5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AB5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AC5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AD5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AE5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AF5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AG5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AH5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AI5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AJ5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AK5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AL5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AM5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AN5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AO5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AP5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AQ5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AR5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AS5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AT5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AU5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AV5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AW5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AX5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AY5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AZ5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="BA5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B6">
-        <v>6.492254376631079</v>
-      </c>
-      <c r="C6">
-        <v>4.566338461218011</v>
-      </c>
-      <c r="D6">
-        <v>8.262942840582955</v>
-      </c>
-      <c r="E6">
-        <v>8.604123301398037</v>
-      </c>
-      <c r="F6">
-        <v>6.277541464866987</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>4.685841089432219</v>
+        <v>5.18849779713848</v>
       </c>
       <c r="H6">
-        <v>5.504079960263075</v>
+        <v>6.501639325381814</v>
       </c>
       <c r="I6">
-        <v>5.261925437969128</v>
+        <v>5.829578861489648</v>
       </c>
       <c r="J6">
-        <v>1.457481710491537</v>
+        <v>5.160655543917292</v>
       </c>
       <c r="K6">
-        <v>1.457481710491537</v>
+        <v>3.889938592324382</v>
       </c>
       <c r="L6">
-        <v>1.457481710491537</v>
+        <v>3.65682115264816</v>
       </c>
       <c r="M6">
-        <v>1.457481710491537</v>
+        <v>3.608456360804535</v>
       </c>
       <c r="N6">
-        <v>1.457481710491537</v>
+        <v>4.235269442720724</v>
       </c>
       <c r="O6">
-        <v>1.457481710491537</v>
+        <v>4.235269442720724</v>
       </c>
       <c r="P6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="Q6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="R6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="S6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="T6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="U6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="V6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="W6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="X6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="Y6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="Z6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AA6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AB6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AC6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AD6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AE6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AF6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AG6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AH6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AI6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AJ6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AK6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AL6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AM6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AN6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AO6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AP6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AQ6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AR6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AS6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AT6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AU6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AV6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AW6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AX6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AY6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AZ6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="BA6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="C7">
-        <v>5.844382037446127</v>
-      </c>
-      <c r="D7">
-        <v>7.804666188252063</v>
-      </c>
-      <c r="E7">
-        <v>8.260999835306727</v>
-      </c>
-      <c r="F7">
-        <v>7.915558093865038</v>
-      </c>
-      <c r="G7">
-        <v>5.436647924209592</v>
-      </c>
-      <c r="H7">
-        <v>6.535114773304773</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>6.546022603510715</v>
+        <v>5.883259389260398</v>
       </c>
       <c r="J7">
-        <v>2.925298061139281</v>
+        <v>5.057585783471263</v>
       </c>
       <c r="K7">
-        <v>2.925298061139281</v>
+        <v>3.430035192100678</v>
       </c>
       <c r="L7">
-        <v>1.816525349942233</v>
+        <v>3.624426704091555</v>
       </c>
       <c r="M7">
-        <v>1.816525349942233</v>
+        <v>2.513767348245066</v>
       </c>
       <c r="N7">
-        <v>1.816525349942233</v>
+        <v>2.943878639034381</v>
       </c>
       <c r="O7">
-        <v>1.816525349942233</v>
+        <v>2.964987684846876</v>
       </c>
       <c r="P7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="Q7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="R7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="S7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="T7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="U7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="V7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="W7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="X7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="Y7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="Z7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AA7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AB7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AC7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AD7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AE7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AF7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AG7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AH7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AI7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AJ7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AK7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AL7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AM7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AN7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AO7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AP7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AQ7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AR7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AS7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AT7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AU7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AV7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AW7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AX7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AY7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AZ7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="BA7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E8">
-        <v>8.086739863971237</v>
-      </c>
-      <c r="F8">
-        <v>7.65793515736144</v>
-      </c>
-      <c r="G8">
-        <v>4.862860110364875</v>
-      </c>
-      <c r="H8">
-        <v>6.402044794134309</v>
-      </c>
-      <c r="I8">
-        <v>6.334380382529425</v>
-      </c>
-      <c r="J8">
-        <v>5.12051970717502</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>5.068263380731586</v>
+        <v>3.99409647836757</v>
       </c>
       <c r="L8">
-        <v>3.441186410406072</v>
+        <v>3.659486531526768</v>
       </c>
       <c r="M8">
-        <v>3.441186410406072</v>
+        <v>2.479992751939486</v>
       </c>
       <c r="N8">
-        <v>5.154576318286241</v>
+        <v>3.771815305047843</v>
       </c>
       <c r="O8">
-        <v>5.154576318286241</v>
+        <v>2.723916849952834</v>
       </c>
       <c r="P8">
-        <v>5.154576318286241</v>
+        <v>1.172679597477866</v>
       </c>
       <c r="Q8">
-        <v>5.154576318286241</v>
+        <v>1.179635526469514</v>
       </c>
       <c r="R8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="S8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="T8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="U8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="V8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="W8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="X8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="Y8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="Z8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AA8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AB8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AC8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AD8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AE8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AF8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AG8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AH8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AI8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AJ8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AK8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AL8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AM8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AN8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AO8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AP8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AQ8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AR8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AS8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AT8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AU8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AV8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AW8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AX8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AY8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AZ8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="BA8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>5.18849779713848</v>
-      </c>
-      <c r="H9">
-        <v>6.501639325381836</v>
-      </c>
-      <c r="I9">
-        <v>5.829578861489648</v>
-      </c>
-      <c r="J9">
-        <v>5.160655543917292</v>
-      </c>
-      <c r="K9">
-        <v>3.88993859232436</v>
-      </c>
-      <c r="L9">
-        <v>3.65682115264816</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>3.608456360804535</v>
+        <v>2.956896625765504</v>
       </c>
       <c r="N9">
-        <v>4.235269442720746</v>
+        <v>3.425117131436561</v>
       </c>
       <c r="O9">
-        <v>4.235269442720746</v>
+        <v>2.551173534479356</v>
       </c>
       <c r="P9">
-        <v>3.237295655668815</v>
+        <v>1.204704113773114</v>
       </c>
       <c r="Q9">
-        <v>3.237295655668815</v>
+        <v>1.326505206336948</v>
       </c>
       <c r="R9">
-        <v>3.237295655668815</v>
+        <v>2.961845079861303</v>
       </c>
       <c r="S9">
-        <v>3.237295655668815</v>
+        <v>2.855441083184784</v>
       </c>
       <c r="T9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="U9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="V9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="W9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="X9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="Y9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="Z9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AA9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AB9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AC9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AD9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AE9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AF9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AG9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AH9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AI9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AJ9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AK9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AL9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AM9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AN9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AO9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AP9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AQ9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AR9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AS9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AT9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AU9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AV9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AW9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AX9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AY9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AZ9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="BA9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>5.883259389260376</v>
-      </c>
-      <c r="J10">
-        <v>5.057585783471286</v>
-      </c>
-      <c r="K10">
-        <v>3.4300351921007</v>
-      </c>
-      <c r="L10">
-        <v>3.62442670409151</v>
-      </c>
-      <c r="M10">
-        <v>2.513767348245044</v>
-      </c>
-      <c r="N10">
-        <v>2.943878639034381</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>2.964987684846854</v>
+        <v>2.92666204097165</v>
       </c>
       <c r="P10">
-        <v>0.9877679306576237</v>
+        <v>1.368241846432783</v>
       </c>
       <c r="Q10">
-        <v>0.9877679306576237</v>
+        <v>1.211929054838756</v>
       </c>
       <c r="R10">
-        <v>0.9877679306576237</v>
+        <v>2.56219956496937</v>
       </c>
       <c r="S10">
-        <v>0.9877679306576237</v>
+        <v>2.321003614014905</v>
       </c>
       <c r="T10">
-        <v>0.9877679306576237</v>
+        <v>2.508469427909921</v>
       </c>
       <c r="U10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="V10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="W10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="X10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="Y10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="Z10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AA10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AB10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AC10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AD10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AE10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AF10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AG10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AH10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AI10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AJ10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AK10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AL10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AM10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AN10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AO10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AP10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AQ10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AR10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AS10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AT10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AU10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AV10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AW10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AX10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AY10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AZ10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="BA10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>3.994096478367593</v>
-      </c>
-      <c r="L11">
-        <v>3.65948653152679</v>
-      </c>
-      <c r="M11">
-        <v>2.479992751939486</v>
-      </c>
-      <c r="N11">
-        <v>3.771815305047821</v>
-      </c>
-      <c r="O11">
-        <v>2.723916849952834</v>
-      </c>
-      <c r="P11">
-        <v>1.172679597477866</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>1.179635526469514</v>
+        <v>1.105374103533041</v>
       </c>
       <c r="R11">
-        <v>2.422799116969476</v>
+        <v>2.509436990323466</v>
       </c>
       <c r="S11">
-        <v>2.422799116969476</v>
+        <v>2.610201636760778</v>
       </c>
       <c r="T11">
-        <v>2.422799116969476</v>
+        <v>2.632055757778873</v>
       </c>
       <c r="U11">
-        <v>2.422799116969476</v>
+        <v>2.468891199411116</v>
       </c>
       <c r="V11">
-        <v>2.422799116969476</v>
+        <v>3.523703831572056</v>
       </c>
       <c r="W11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="X11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="Y11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="Z11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AA11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AB11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AC11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AD11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AE11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AF11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AG11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AH11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AI11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AJ11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AK11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AL11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AM11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AN11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AO11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AP11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AQ11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AR11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AS11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AT11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AU11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AV11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AW11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AX11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AY11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AZ11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="BA11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>2.956896625765504</v>
-      </c>
-      <c r="N12">
-        <v>3.425117131436584</v>
-      </c>
-      <c r="O12">
-        <v>2.551173534479334</v>
-      </c>
-      <c r="P12">
-        <v>1.204704113773114</v>
-      </c>
-      <c r="Q12">
-        <v>1.326505206336948</v>
-      </c>
-      <c r="R12">
-        <v>2.961845079861303</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>2.855441083184784</v>
+        <v>2.718162429922621</v>
       </c>
       <c r="T12">
-        <v>2.851134222122775</v>
+        <v>2.540934261064343</v>
       </c>
       <c r="U12">
-        <v>2.851134222122775</v>
+        <v>2.593292206016984</v>
       </c>
       <c r="V12">
-        <v>2.851134222122775</v>
+        <v>3.331068508781954</v>
       </c>
       <c r="W12">
-        <v>2.851134222122775</v>
+        <v>2.442951431721241</v>
       </c>
       <c r="X12">
-        <v>2.851134222122775</v>
+        <v>3.133596157287766</v>
       </c>
       <c r="Y12">
-        <v>2.851134222122775</v>
+        <v>1.273091634877033</v>
       </c>
       <c r="Z12">
-        <v>2.851134222122775</v>
+        <v>1.178605266817589</v>
       </c>
       <c r="AA12">
-        <v>2.851134222122775</v>
+        <v>1.172618626782262</v>
       </c>
       <c r="AB12">
-        <v>2.851134222122775</v>
+        <v>1.178605266817589</v>
       </c>
       <c r="AC12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AD12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AE12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AF12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AG12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AH12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AI12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AJ12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AK12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AL12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AM12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AN12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AO12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AP12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AQ12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AR12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AS12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AT12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AU12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AV12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AW12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AX12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AY12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AZ12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="BA12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>2.92666204097165</v>
-      </c>
-      <c r="P13">
-        <v>1.368241846432783</v>
-      </c>
-      <c r="Q13">
-        <v>1.211929054838756</v>
-      </c>
-      <c r="R13">
-        <v>2.562199564969392</v>
-      </c>
-      <c r="S13">
-        <v>2.321003614014883</v>
-      </c>
-      <c r="T13">
-        <v>2.508469427909898</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>2.513458516032818</v>
+        <v>2.545962998509954</v>
       </c>
       <c r="V13">
-        <v>2.513458516032818</v>
+        <v>3.042190230897046</v>
       </c>
       <c r="W13">
-        <v>2.513458516032818</v>
+        <v>2.874490643722782</v>
       </c>
       <c r="X13">
-        <v>2.513458516032818</v>
+        <v>3.419422858788335</v>
       </c>
       <c r="Y13">
-        <v>2.513458516032818</v>
+        <v>1.947147525128057</v>
       </c>
       <c r="Z13">
-        <v>2.513458516032818</v>
+        <v>1.467147844249128</v>
       </c>
       <c r="AA13">
-        <v>2.513458516032818</v>
+        <v>1.388614840712399</v>
       </c>
       <c r="AB13">
-        <v>2.513458516032818</v>
+        <v>0.08486825492834971</v>
       </c>
       <c r="AC13">
-        <v>2.513458516032818</v>
+        <v>2.983246785467775</v>
       </c>
       <c r="AD13">
-        <v>2.513458516032818</v>
+        <v>3.047037961814514</v>
       </c>
       <c r="AE13">
-        <v>2.513458516032818</v>
+        <v>3.053142148565624</v>
       </c>
       <c r="AF13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AG13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AH13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AI13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AJ13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AK13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AL13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AM13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AN13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AO13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AP13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AQ13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AR13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AS13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AT13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AU13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AV13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AW13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AX13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AY13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AZ13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="BA13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>1.105374103533041</v>
-      </c>
-      <c r="R14">
-        <v>2.509436990323466</v>
-      </c>
-      <c r="S14">
-        <v>2.610201636760778</v>
-      </c>
-      <c r="T14">
-        <v>2.632055757778851</v>
-      </c>
-      <c r="U14">
-        <v>2.468891199411116</v>
-      </c>
-      <c r="V14">
-        <v>3.523703831572056</v>
-      </c>
-      <c r="W14">
-        <v>3.529772839278755</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>3.529772839278755</v>
+        <v>3.237350225642799</v>
       </c>
       <c r="Y14">
-        <v>3.529772839278755</v>
+        <v>2.359819740510938</v>
       </c>
       <c r="Z14">
-        <v>3.529772839278755</v>
+        <v>2.070334571720234</v>
       </c>
       <c r="AA14">
-        <v>3.529772839278755</v>
+        <v>1.965204165904111</v>
       </c>
       <c r="AB14">
-        <v>3.529772839278755</v>
+        <v>0.9311475558545279</v>
       </c>
       <c r="AC14">
-        <v>3.529772839278755</v>
+        <v>2.844177684788551</v>
       </c>
       <c r="AD14">
-        <v>3.529772839278755</v>
+        <v>2.75705424928776</v>
       </c>
       <c r="AE14">
-        <v>3.529772839278755</v>
+        <v>3.192446966735796</v>
       </c>
       <c r="AF14">
-        <v>3.529772839278755</v>
+        <v>2.405224065057476</v>
       </c>
       <c r="AG14">
-        <v>3.529772839278755</v>
+        <v>-0.618977527279696</v>
       </c>
       <c r="AH14">
-        <v>3.529772839278755</v>
+        <v>-0.22288476972816</v>
       </c>
       <c r="AI14">
-        <v>3.529772839278755</v>
+        <v>-0.2164578521308358</v>
       </c>
       <c r="AJ14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AK14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AL14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AM14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AN14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AO14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AP14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AQ14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AR14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AS14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AT14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AU14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AV14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AW14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AX14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AY14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AZ14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="BA14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>2.718162429922621</v>
-      </c>
-      <c r="T15">
-        <v>2.54093426106432</v>
-      </c>
-      <c r="U15">
-        <v>2.593292206016984</v>
-      </c>
-      <c r="V15">
-        <v>3.331068508781954</v>
-      </c>
-      <c r="W15">
-        <v>2.442951431721241</v>
-      </c>
-      <c r="X15">
-        <v>3.133596157287766</v>
-      </c>
-      <c r="Y15">
-        <v>1.273091634877033</v>
-      </c>
-      <c r="Z15">
-        <v>1.178605266817589</v>
-      </c>
-      <c r="AA15">
-        <v>1.17261862678224</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>1.178605266817589</v>
+        <v>1.292067646347572</v>
       </c>
       <c r="AC15">
-        <v>2.406741336461837</v>
+        <v>3.086398738161233</v>
       </c>
       <c r="AD15">
-        <v>2.406741336461837</v>
+        <v>2.660643950889385</v>
       </c>
       <c r="AE15">
-        <v>2.406741336461837</v>
+        <v>2.739953120486138</v>
       </c>
       <c r="AF15">
-        <v>2.406741336461837</v>
+        <v>2.152035263856322</v>
       </c>
       <c r="AG15">
-        <v>2.406741336461837</v>
+        <v>0.1082486211169131</v>
       </c>
       <c r="AH15">
-        <v>2.406741336461837</v>
+        <v>1.7415595764392</v>
       </c>
       <c r="AI15">
-        <v>2.406741336461837</v>
+        <v>1.792373617242249</v>
       </c>
       <c r="AJ15">
-        <v>2.406741336461837</v>
+        <v>-0.9722867993663398</v>
       </c>
       <c r="AK15">
-        <v>2.406741336461837</v>
+        <v>-1.169239269654432</v>
       </c>
       <c r="AL15">
-        <v>2.406741336461837</v>
+        <v>-1.165854108406639</v>
       </c>
       <c r="AM15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AN15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AO15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AP15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AQ15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AR15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AS15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AT15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AU15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AV15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AW15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AX15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AY15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AZ15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="BA15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>2.545962998509932</v>
-      </c>
-      <c r="V16">
-        <v>3.042190230897068</v>
-      </c>
-      <c r="W16">
-        <v>2.874490643722805</v>
-      </c>
-      <c r="X16">
-        <v>3.419422858788335</v>
-      </c>
-      <c r="Y16">
-        <v>1.947147525128035</v>
-      </c>
-      <c r="Z16">
-        <v>1.467147844249106</v>
-      </c>
-      <c r="AA16">
-        <v>1.388614840712377</v>
-      </c>
-      <c r="AB16">
-        <v>0.08486825492834971</v>
-      </c>
-      <c r="AC16">
-        <v>2.983246785467752</v>
-      </c>
-      <c r="AD16">
-        <v>3.047037961814492</v>
-      </c>
-      <c r="AE16">
-        <v>3.05314214856558</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>3.063996033456418</v>
+        <v>2.37780516103776</v>
       </c>
       <c r="AG16">
-        <v>3.063996033456418</v>
+        <v>1.089812303846749</v>
       </c>
       <c r="AH16">
-        <v>3.063996033456418</v>
+        <v>1.779174890136459</v>
       </c>
       <c r="AI16">
-        <v>3.063996033456418</v>
+        <v>1.512631895540539</v>
       </c>
       <c r="AJ16">
-        <v>3.063996033456418</v>
+        <v>-0.1151106897825049</v>
       </c>
       <c r="AK16">
-        <v>3.063996033456418</v>
+        <v>-0.08704962334619148</v>
       </c>
       <c r="AL16">
-        <v>3.063996033456418</v>
+        <v>0.6926065284462046</v>
       </c>
       <c r="AM16">
-        <v>3.063996033456418</v>
+        <v>2.138474224004239</v>
       </c>
       <c r="AN16">
-        <v>3.063996033456418</v>
+        <v>0.1776648540293913</v>
       </c>
       <c r="AO16">
-        <v>3.063996033456418</v>
+        <v>2.240069601028782</v>
       </c>
       <c r="AP16">
-        <v>3.063996033456418</v>
+        <v>2.501311189006916</v>
       </c>
       <c r="AQ16">
-        <v>3.063996033456418</v>
+        <v>2.508255083117383</v>
       </c>
       <c r="AR16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AS16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AT16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AU16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AV16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AW16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AX16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AY16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AZ16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="BA16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>3.237350225642799</v>
-      </c>
-      <c r="Y17">
-        <v>2.35981974051096</v>
-      </c>
-      <c r="Z17">
-        <v>2.070334571720234</v>
-      </c>
-      <c r="AA17">
-        <v>1.965204165904111</v>
-      </c>
-      <c r="AB17">
-        <v>0.9311475558545057</v>
-      </c>
-      <c r="AC17">
-        <v>2.844177684788551</v>
-      </c>
-      <c r="AD17">
-        <v>2.757054249287738</v>
-      </c>
-      <c r="AE17">
-        <v>3.192446966735796</v>
-      </c>
-      <c r="AF17">
-        <v>2.405224065057476</v>
-      </c>
-      <c r="AG17">
-        <v>-0.618977527279696</v>
-      </c>
-      <c r="AH17">
-        <v>-0.2228847697281378</v>
-      </c>
-      <c r="AI17">
-        <v>-0.2164578521308247</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>0.6221001279347549</v>
+        <v>0.3155976206193234</v>
       </c>
       <c r="AK17">
-        <v>0.6221001279347549</v>
+        <v>-0.06659944061516709</v>
       </c>
       <c r="AL17">
-        <v>0.6221001279347549</v>
+        <v>0.3395014004389685</v>
       </c>
       <c r="AM17">
-        <v>0.6221001279347549</v>
+        <v>0.611102887179138</v>
       </c>
       <c r="AN17">
-        <v>0.6221001279347549</v>
+        <v>-1.134429800434078</v>
       </c>
       <c r="AO17">
-        <v>0.6221001279347549</v>
+        <v>0.4012493484190971</v>
       </c>
       <c r="AP17">
-        <v>0.6221001279347549</v>
+        <v>2.055357398179125</v>
       </c>
       <c r="AQ17">
-        <v>0.6221001279347549</v>
+        <v>2.4841157036257</v>
       </c>
       <c r="AR17">
-        <v>0.6221001279347549</v>
+        <v>2.217384308289683</v>
       </c>
       <c r="AS17">
-        <v>0.6221001279347549</v>
+        <v>0.8849036736221061</v>
       </c>
       <c r="AT17">
-        <v>0.6221001279347549</v>
+        <v>0.6753076481029074</v>
       </c>
       <c r="AU17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
       <c r="AV17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
       <c r="AW17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
       <c r="AX17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
       <c r="AY17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
       <c r="AZ17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
       <c r="BA17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>1.292067646347594</v>
-      </c>
-      <c r="AC18">
-        <v>3.086398738161211</v>
-      </c>
-      <c r="AD18">
-        <v>2.660643950889385</v>
-      </c>
-      <c r="AE18">
-        <v>2.739953120486138</v>
-      </c>
-      <c r="AF18">
-        <v>2.152035263856344</v>
-      </c>
-      <c r="AG18">
-        <v>0.1082486211169353</v>
-      </c>
-      <c r="AH18">
-        <v>1.741559576439178</v>
-      </c>
-      <c r="AI18">
-        <v>1.792373617242249</v>
-      </c>
-      <c r="AJ18">
-        <v>-0.9722867993663398</v>
-      </c>
-      <c r="AK18">
-        <v>-1.169239269654421</v>
-      </c>
-      <c r="AL18">
-        <v>-1.165854108406617</v>
-      </c>
-      <c r="AM18">
-        <v>-1.00567013592574</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>-1.00567013592574</v>
+        <v>-0.6336784008719176</v>
       </c>
       <c r="AO18">
-        <v>-1.00567013592574</v>
+        <v>0.04631353286177475</v>
       </c>
       <c r="AP18">
-        <v>-1.00567013592574</v>
+        <v>1.457326774241374</v>
       </c>
       <c r="AQ18">
-        <v>-1.00567013592574</v>
+        <v>1.649971980071019</v>
       </c>
       <c r="AR18">
-        <v>-1.00567013592574</v>
+        <v>1.307306144161835</v>
       </c>
       <c r="AS18">
-        <v>-1.00567013592574</v>
+        <v>0.4552838284335392</v>
       </c>
       <c r="AT18">
-        <v>-1.00567013592574</v>
+        <v>0.9064937165318865</v>
       </c>
       <c r="AU18">
-        <v>-1.00567013592574</v>
+        <v>1.144003037854291</v>
       </c>
       <c r="AV18">
-        <v>-1.00567013592574</v>
+        <v>-0.1883299148263795</v>
       </c>
       <c r="AW18">
-        <v>-1.00567013592574</v>
+        <v>1.978716901346367</v>
       </c>
       <c r="AX18">
-        <v>-1.00567013592574</v>
+        <v>2.039329803030099</v>
       </c>
       <c r="AY18">
-        <v>-1.00567013592574</v>
+        <v>2.00811397206242</v>
       </c>
       <c r="AZ18">
-        <v>-1.00567013592574</v>
+        <v>1.751198481007687</v>
       </c>
       <c r="BA18">
-        <v>-1.00567013592574</v>
+        <v>1.751198481007687</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>2.377805161037783</v>
-      </c>
-      <c r="AG19">
-        <v>1.089812303846749</v>
-      </c>
-      <c r="AH19">
-        <v>1.779174890136459</v>
-      </c>
-      <c r="AI19">
-        <v>1.512631895540539</v>
-      </c>
-      <c r="AJ19">
-        <v>-0.1151106897824938</v>
-      </c>
-      <c r="AK19">
-        <v>-0.08704962334622479</v>
-      </c>
-      <c r="AL19">
-        <v>0.6926065284462046</v>
-      </c>
-      <c r="AM19">
-        <v>2.138474224004239</v>
-      </c>
-      <c r="AN19">
-        <v>0.1776648540293913</v>
-      </c>
-      <c r="AO19">
-        <v>2.24006960102876</v>
-      </c>
-      <c r="AP19">
-        <v>2.501311189006916</v>
-      </c>
-      <c r="AQ19">
-        <v>2.508255083117383</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>2.512564721370381</v>
+        <v>1.356838542228789</v>
       </c>
       <c r="AS19">
-        <v>2.512564721370381</v>
+        <v>0.801829213172689</v>
       </c>
       <c r="AT19">
-        <v>2.512564721370381</v>
+        <v>1.780453241879165</v>
       </c>
       <c r="AU19">
-        <v>2.512564721370381</v>
+        <v>1.636991574405333</v>
       </c>
       <c r="AV19">
-        <v>2.512564721370381</v>
+        <v>0.4536295996834916</v>
       </c>
       <c r="AW19">
-        <v>2.512564721370381</v>
+        <v>1.861561193014349</v>
       </c>
       <c r="AX19">
-        <v>2.512564721370381</v>
+        <v>2.227147006388908</v>
       </c>
       <c r="AY19">
-        <v>2.512564721370381</v>
+        <v>1.42158706675215</v>
       </c>
       <c r="AZ19">
-        <v>2.512564721370381</v>
+        <v>3.083905204716264</v>
       </c>
       <c r="BA19">
-        <v>2.512564721370381</v>
+        <v>2.3295061262957</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>0.3155976206193456</v>
-      </c>
-      <c r="AK20">
-        <v>-0.0665994406151782</v>
-      </c>
-      <c r="AL20">
-        <v>0.3395014004389463</v>
-      </c>
-      <c r="AM20">
-        <v>0.6111028871791158</v>
-      </c>
-      <c r="AN20">
-        <v>-1.134429800434078</v>
-      </c>
-      <c r="AO20">
-        <v>0.4012493484190971</v>
-      </c>
-      <c r="AP20">
-        <v>2.055357398179147</v>
-      </c>
-      <c r="AQ20">
-        <v>2.4841157036257</v>
-      </c>
-      <c r="AR20">
-        <v>2.217384308289683</v>
-      </c>
-      <c r="AS20">
-        <v>0.8849036736220839</v>
-      </c>
-      <c r="AT20">
-        <v>0.6753076481029074</v>
-      </c>
-      <c r="AU20">
-        <v>0.6556783400334387</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>0.6556783400334387</v>
+        <v>0.794371321025622</v>
       </c>
       <c r="AW20">
-        <v>0.6556783400334387</v>
+        <v>1.510173017742922</v>
       </c>
       <c r="AX20">
-        <v>0.6556783400334387</v>
+        <v>1.806173837644764</v>
       </c>
       <c r="AY20">
-        <v>0.6556783400334387</v>
+        <v>1.392799823427304</v>
       </c>
       <c r="AZ20">
-        <v>0.6556783400334387</v>
+        <v>2.197852508472353</v>
       </c>
       <c r="BA20">
-        <v>0.6556783400334387</v>
+        <v>1.88649514615955</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>-0.6336784008719287</v>
-      </c>
-      <c r="AO21">
-        <v>0.04631353286177475</v>
-      </c>
-      <c r="AP21">
-        <v>1.457326774241374</v>
-      </c>
-      <c r="AQ21">
-        <v>1.649971980070997</v>
-      </c>
-      <c r="AR21">
-        <v>1.307306144161835</v>
-      </c>
-      <c r="AS21">
-        <v>0.455283828433517</v>
-      </c>
-      <c r="AT21">
-        <v>0.9064937165318643</v>
-      </c>
-      <c r="AU21">
-        <v>1.144003037854291</v>
-      </c>
-      <c r="AV21">
-        <v>-0.1883299148263573</v>
-      </c>
-      <c r="AW21">
-        <v>1.978716901346389</v>
-      </c>
-      <c r="AX21">
-        <v>2.039329803030121</v>
-      </c>
-      <c r="AY21">
-        <v>2.008113972062442</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>1.751198481007687</v>
+        <v>1.808382088315508</v>
       </c>
       <c r="BA21">
-        <v>1.751198481007687</v>
+        <v>1.418591644457501</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>1.356838542228789</v>
-      </c>
-      <c r="AS22">
-        <v>0.8018292131726668</v>
-      </c>
-      <c r="AT22">
-        <v>1.780453241879165</v>
-      </c>
-      <c r="AU22">
-        <v>1.636991574405333</v>
-      </c>
-      <c r="AV22">
-        <v>0.4536295996834916</v>
-      </c>
-      <c r="AW22">
-        <v>1.861561193014372</v>
-      </c>
-      <c r="AX22">
-        <v>2.227147006388908</v>
-      </c>
-      <c r="AY22">
-        <v>1.42158706675215</v>
-      </c>
-      <c r="AZ22">
-        <v>3.083905204716286</v>
-      </c>
-      <c r="BA22">
-        <v>2.329506126295722</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>0.7943713210255998</v>
-      </c>
-      <c r="AW23">
-        <v>1.510173017742922</v>
-      </c>
-      <c r="AX23">
-        <v>1.806173837644764</v>
-      </c>
-      <c r="AY23">
-        <v>1.392799823427304</v>
-      </c>
-      <c r="AZ23">
-        <v>2.197852508472353</v>
-      </c>
-      <c r="BA23">
-        <v>1.886495146159572</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>1.808382088315508</v>
-      </c>
-      <c r="BA24">
-        <v>1.418591644457501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AVERAGE_10_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BA3">
         <v>1.457481710491582</v>
       </c>
+      <c r="BB3">
+        <v>1.457481710491582</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -856,8 +862,11 @@
       <c r="BA4">
         <v>1.816525349942233</v>
       </c>
+      <c r="BB4">
+        <v>1.816525349942233</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -1008,8 +1017,11 @@
       <c r="BA5">
         <v>5.154576318286241</v>
       </c>
+      <c r="BB5">
+        <v>5.154576318286241</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="BA6">
         <v>3.237295655668815</v>
       </c>
+      <c r="BB6">
+        <v>3.237295655668815</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1294,8 +1309,11 @@
       <c r="BA7">
         <v>0.9877679306576237</v>
       </c>
+      <c r="BB7">
+        <v>0.9877679306576237</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1428,8 +1446,11 @@
       <c r="BA8">
         <v>2.422799116969476</v>
       </c>
+      <c r="BB8">
+        <v>2.422799116969476</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1556,8 +1577,11 @@
       <c r="BA9">
         <v>2.851134222122798</v>
       </c>
+      <c r="BB9">
+        <v>2.851134222122798</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1678,8 +1702,11 @@
       <c r="BA10">
         <v>2.51345851603284</v>
       </c>
+      <c r="BB10">
+        <v>2.51345851603284</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="BA11">
         <v>3.529772839278777</v>
       </c>
+      <c r="BB11">
+        <v>3.529772839278777</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1904,8 +1934,11 @@
       <c r="BA12">
         <v>2.406741336461815</v>
       </c>
+      <c r="BB12">
+        <v>2.406741336461815</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2008,8 +2041,11 @@
       <c r="BA13">
         <v>3.06399603345644</v>
       </c>
+      <c r="BB13">
+        <v>3.06399603345644</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2103,8 +2139,11 @@
       <c r="BA14">
         <v>0.6221001279347327</v>
       </c>
+      <c r="BB14">
+        <v>0.6221001279347327</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2186,8 +2225,11 @@
       <c r="BA15">
         <v>-1.005670135925762</v>
       </c>
+      <c r="BB15">
+        <v>-1.005670135925762</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2257,8 +2299,11 @@
       <c r="BA16">
         <v>2.512564721370358</v>
       </c>
+      <c r="BB16">
+        <v>2.512564721370358</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2316,8 +2361,11 @@
       <c r="BA17">
         <v>0.6556783400334387</v>
       </c>
+      <c r="BB17">
+        <v>0.6556783400334387</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2363,8 +2411,11 @@
       <c r="BA18">
         <v>1.751198481007687</v>
       </c>
+      <c r="BB18">
+        <v>1.751198481007687</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2398,8 +2449,11 @@
       <c r="BA19">
         <v>2.3295061262957</v>
       </c>
+      <c r="BB19">
+        <v>2.46481303148316</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="BA20">
         <v>1.88649514615955</v>
       </c>
+      <c r="BB20">
+        <v>2.928470412166684</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="BA21">
         <v>1.418591644457501</v>
       </c>
+      <c r="BB21">
+        <v>2.439164702314445</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
